--- a/anew/tuning.xlsx
+++ b/anew/tuning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="261" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="261"/>
   </bookViews>
   <sheets>
     <sheet name="n_0 sensitivity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Samples_a</t>
   </si>
@@ -118,7 +118,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>wholer curve exponent)</t>
     </r>
@@ -131,122 +132,104 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>BATCH_B_01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>BATCH_B_02</t>
+  </si>
+  <si>
+    <t>BATCH_B_03</t>
+  </si>
+  <si>
+    <t>BATCH_B_04</t>
+  </si>
+  <si>
+    <t>BATCH_B_05</t>
+  </si>
+  <si>
+    <t>BATCH_B_06</t>
+  </si>
+  <si>
+    <t>BATCH_B_07</t>
+  </si>
+  <si>
+    <t>BATCH_B_08</t>
+  </si>
+  <si>
+    <t>BATCH_B_09</t>
+  </si>
+  <si>
+    <t>BATCH_B_10</t>
+  </si>
+  <si>
+    <t>BATCH_B_11</t>
+  </si>
+  <si>
+    <t>BATCH_B_12</t>
+  </si>
+  <si>
+    <t>alp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Parameter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min repetition to failure</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max repetition to failure</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Sensitivity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Non-linearity of damage accumulation - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alp</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Weakening scales distribution exponent -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> beta</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material parameter from Chaboche law - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gam </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hydrostatic pressure sensitivity - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lam</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dissipated energy to failure per defect - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WF/n0</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min_repetition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_repetition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean_repetition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\alpha$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\beta$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\gamma$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\lambda$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$W_F/n_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -259,14 +242,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -283,25 +268,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -342,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -368,20 +338,21 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,16 +481,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.97664216029968554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7.9665309137610954E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1067,7 +1032,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1324,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1351,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1379,11 +1344,15 @@
       <c r="B2" s="4">
         <v>99838</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5">
+        <v>0.68055765802238666</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2332</v>
+      </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:E15" si="0">(B2-D2)/B2</f>
-        <v>1</v>
+        <v>0.97664216029968554</v>
       </c>
       <c r="H2" s="4">
         <v>613510112.03060985</v>
@@ -1396,14 +1365,21 @@
       <c r="B3" s="4">
         <v>414233</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5">
+        <v>0.96201358577615625</v>
+      </c>
+      <c r="D3" s="4">
+        <v>414200</v>
+      </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7.9665309137610954E-5</v>
       </c>
       <c r="H3" s="4">
         <v>613510112.03060985</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1415,12 +1391,12 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="H4" s="4">
         <v>613510112.03060985</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1432,19 +1408,11 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>95</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G15" si="1">ROUND($B5/$F5,0)</f>
-        <v>14487</v>
-      </c>
       <c r="H5" s="4">
         <v>613510112.03060985</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1457,18 +1425,21 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f>(B6-D6)/B6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>95</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>12735</v>
+        <f>ROUND(($B5+$B6)/$F6,0)</f>
+        <v>27222</v>
       </c>
       <c r="H6" s="4">
         <v>613510112.03060985</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1488,11 +1459,14 @@
         <v>156</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G7:G15" si="1">ROUND($B7/$F7,0)</f>
         <v>27054</v>
       </c>
       <c r="H7" s="4">
         <v>613510112.03060985</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1518,6 +1492,9 @@
       <c r="H8" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
@@ -1542,6 +1519,9 @@
       <c r="H9" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
@@ -1566,6 +1546,9 @@
       <c r="H10" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
@@ -1590,6 +1573,9 @@
       <c r="H11" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
@@ -1614,6 +1600,9 @@
       <c r="H12" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
@@ -1638,6 +1627,9 @@
       <c r="H13" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
@@ -1662,6 +1654,9 @@
       <c r="H14" s="4">
         <v>613510112.03060985</v>
       </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
@@ -1716,10 +1711,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -1919,146 +1914,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="46.88671875"/>
-    <col min="2" max="2" width="21.88671875"/>
-    <col min="3" max="3" width="15.21875"/>
-    <col min="4" max="4" width="31.44140625"/>
-    <col min="5" max="5" width="25.44140625"/>
-    <col min="6" max="6" width="11.21875"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="20">
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="16">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>0.95</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
+        <f>(B2+C2)/2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E2" s="16">
         <v>25.417000000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="16">
         <v>507.48</v>
       </c>
-      <c r="F2" s="4">
-        <f>($E2-$D2)/($C2-$B2)</f>
-        <v>507.43473684210528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="G2" s="16">
+        <f>(E2+F2)/2</f>
+        <v>266.44850000000002</v>
+      </c>
+      <c r="H2" s="17">
+        <f>($F2-$E2)/G2/(($C2-$B2)/D2)</f>
+        <v>0.90460820758983429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1.01</v>
+      </c>
+      <c r="C3" s="16">
         <v>6</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:D6" si="0">(B3+C3)/2</f>
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="E3" s="16">
         <v>2.0516999999999999</v>
       </c>
-      <c r="E3" s="4">
-        <v>557.5025967807286</v>
-      </c>
-      <c r="F3" s="4">
-        <f>($E3-$D3)/($C3-$B3)</f>
-        <v>115.71893682931847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="F3" s="16">
+        <v>558</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G6" si="1">(E3+F3)/2</f>
+        <v>280.02584999999999</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H6" si="2">($F3-$E3)/G3/(($C3-$B3)/D3)</f>
+        <v>1.3945168269987904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="E4" s="16">
         <v>272.97000000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="16">
         <v>25.997</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4" si="0">($E4-$D4)/($C4-$B4)</f>
-        <v>-12.998578947368422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="G4" s="16">
+        <f t="shared" si="1"/>
+        <v>149.48350000000002</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.91304444268008444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16">
         <v>0</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="16">
         <v>79.352999999999994</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="16">
         <v>74.968999999999994</v>
       </c>
-      <c r="F5" s="4">
-        <f>($E5-$D5)/($C5-$B5)</f>
-        <v>-4.3840000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>77.161000000000001</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.8408133642643305E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="18">
         <v>10000000</v>
       </c>
-      <c r="C6" s="22">
-        <v>200000000</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="18">
+        <v>1000000000</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>505000000</v>
+      </c>
+      <c r="E6" s="16">
         <v>2.7023000000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>52.909794099230176</v>
-      </c>
-      <c r="F6" s="4">
-        <f>($E6-$D6)/($C6-$B6)</f>
-        <v>2.6424996894331671E-7</v>
+      <c r="F6" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>27.80115</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92103734826607797</v>
       </c>
     </row>
   </sheetData>
